--- a/src/test/resources/testData/Logindata.xlsx
+++ b/src/test/resources/testData/Logindata.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakhy\Selenium_Hackathon\SeleniumHackathon_Feb25\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SahanaNUMPYNINJASDET\workspace\Team5BugDetectors\SeleniumHackathon_Feb25\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE185D6-EB02-4B91-9C9B-79F69289120D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DAC538-33BA-43B5-844C-1C8AF9B4B54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="1710" windowWidth="14400" windowHeight="8170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="program" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>UserName</t>
   </si>
@@ -77,12 +78,54 @@
       <t>Feb@2025</t>
     </r>
   </si>
+  <si>
+    <t>ProgramNames</t>
+  </si>
+  <si>
+    <t>programjava</t>
+  </si>
+  <si>
+    <t>ProgramDescription</t>
+  </si>
+  <si>
+    <t>SDET and DA</t>
+  </si>
+  <si>
+    <t>Programthatdoesnotexist</t>
+  </si>
+  <si>
+    <t>lilly</t>
+  </si>
+  <si>
+    <t>PartialName</t>
+  </si>
+  <si>
+    <t>progra</t>
+  </si>
+  <si>
+    <t>DeletedprogramName</t>
+  </si>
+  <si>
+    <t>crossbrowsing</t>
+  </si>
+  <si>
+    <t>dockerconcepts</t>
+  </si>
+  <si>
+    <t>editprogramsname</t>
+  </si>
+  <si>
+    <t>editDescription</t>
+  </si>
+  <si>
+    <t>conceptsofdocker</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -111,6 +154,21 @@
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,11 +191,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,7 +418,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -408,4 +468,74 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F046D055-3E85-4718-8D04-FAFE2D7BFA07}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="37.26953125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" customWidth="1"/>
+    <col min="5" max="5" width="38.26953125" customWidth="1"/>
+    <col min="6" max="6" width="34.6328125" customWidth="1"/>
+    <col min="7" max="7" width="24.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>